--- a/Data/Excel/Poetry_古诗.xlsx
+++ b/Data/Excel/Poetry_古诗.xlsx
@@ -1265,13 +1265,13 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.89453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="15.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.41"/>
@@ -1393,7 +1393,8 @@
       <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="4" t="b">
+      <c r="F5" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1422,7 +1423,8 @@
       <c r="E6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="4" t="b">
+      <c r="F6" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1451,7 +1453,8 @@
       <c r="E7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="4" t="b">
+      <c r="F7" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1480,7 +1483,8 @@
       <c r="E8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="4" t="b">
+      <c r="F8" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G8" s="2"/>
@@ -1507,7 +1511,8 @@
       <c r="E9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="4" t="b">
+      <c r="F9" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G9" s="2"/>
@@ -1529,7 +1534,8 @@
       <c r="E10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="4" t="b">
+      <c r="F10" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G10" s="2"/>
@@ -1554,7 +1560,8 @@
       <c r="E11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="4" t="b">
+      <c r="F11" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G11" s="2"/>
@@ -1579,7 +1586,8 @@
       <c r="E12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="4" t="b">
+      <c r="F12" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1606,7 +1614,8 @@
       <c r="E13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="4" t="b">
+      <c r="F13" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1635,7 +1644,8 @@
       <c r="E14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="4" t="b">
+      <c r="F14" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1670,7 +1680,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.89453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.85"/>

--- a/Data/Excel/Poetry_古诗.xlsx
+++ b/Data/Excel/Poetry_古诗.xlsx
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
